--- a/ТЗ PREMIATA.xlsx
+++ b/ТЗ PREMIATA.xlsx
@@ -452,9 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>

--- a/ТЗ PREMIATA.xlsx
+++ b/ТЗ PREMIATA.xlsx
@@ -452,7 +452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>

--- a/ТЗ PREMIATA.xlsx
+++ b/ТЗ PREMIATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -452,23 +452,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="82.8984375" customWidth="1"/>
-    <col min="7" max="7" width="18.296875" customWidth="1"/>
-    <col min="8" max="8" width="18.8984375" customWidth="1"/>
-    <col min="16" max="16" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="82.875" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="16" max="16" width="17.75" customWidth="1"/>
     <col min="16384" max="16384" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -592,6 +592,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>